--- a/min5m_carb.impact_V.1.0.xlsx
+++ b/min5m_carb.impact_V.1.0.xlsx
@@ -785,7 +785,7 @@
   <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
